--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="609">
   <si>
     <t>Property</t>
   </si>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>すべてのObservation（検査測定や観察事実）の制約プロファイル</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2413,19 +2409,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="AN1" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -2436,10 +2432,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2450,28 +2446,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2521,13 +2517,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2556,10 +2552,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2570,25 +2566,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2639,19 +2635,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2674,10 +2670,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2688,28 +2684,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2759,19 +2755,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2794,10 +2790,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2808,7 +2804,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2820,16 +2816,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2855,43 +2851,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2914,21 +2910,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2940,16 +2936,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2999,31 +2995,31 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -3034,14 +3030,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3060,16 +3056,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3119,7 +3115,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -3143,7 +3139,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -3154,14 +3150,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3180,16 +3176,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3239,7 +3235,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3251,7 +3247,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3263,7 +3259,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -3274,14 +3270,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3294,25 +3290,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3361,7 +3357,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3373,7 +3369,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3385,7 +3381,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -3396,10 +3392,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3419,22 +3415,22 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3483,7 +3479,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3495,22 +3491,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL10" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AN10" t="s" s="2">
+      <c r="AO10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3518,10 +3514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3532,7 +3528,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>41</v>
@@ -3544,13 +3540,13 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3601,31 +3597,31 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3636,14 +3632,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3662,16 +3658,16 @@
         <v>41</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3709,19 +3705,19 @@
         <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AC12" t="s" s="2">
+      <c r="AD12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AD12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AF12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3733,7 +3729,7 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>41</v>
@@ -3745,7 +3741,7 @@
         <v>41</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3756,10 +3752,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3770,31 +3766,31 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3819,55 +3815,55 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>41</v>
@@ -3878,10 +3874,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3892,31 +3888,31 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3941,55 +3937,55 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="AN14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>41</v>
@@ -4000,10 +3996,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4014,31 +4010,31 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -4087,31 +4083,31 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>41</v>
@@ -4122,10 +4118,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4136,28 +4132,28 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4207,31 +4203,31 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -4242,10 +4238,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4256,25 +4252,25 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4325,31 +4321,31 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4360,10 +4356,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4374,28 +4370,28 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4445,31 +4441,31 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4480,14 +4476,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4503,22 +4499,22 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -4567,7 +4563,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4579,19 +4575,19 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4602,14 +4598,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4625,19 +4621,19 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4687,7 +4683,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4699,19 +4695,19 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4722,10 +4718,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4733,34 +4729,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="J21" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -4785,58 +4781,58 @@
         <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>41</v>
@@ -4844,10 +4840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4855,7 +4851,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -4870,19 +4866,19 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4907,27 +4903,27 @@
         <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4939,7 +4935,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4951,10 +4947,10 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>41</v>
@@ -4962,10 +4958,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4976,7 +4972,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4988,13 +4984,13 @@
         <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5045,31 +5041,31 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -5080,14 +5076,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5106,16 +5102,16 @@
         <v>41</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5153,19 +5149,19 @@
         <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC24" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AC24" t="s" s="2">
+      <c r="AD24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AD24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -5177,7 +5173,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -5189,7 +5185,7 @@
         <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -5200,10 +5196,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5223,22 +5219,22 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5287,7 +5283,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5299,7 +5295,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -5308,10 +5304,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5322,10 +5318,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5336,31 +5332,31 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5409,31 +5405,31 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5444,23 +5440,23 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5472,19 +5468,19 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5509,11 +5505,11 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5531,7 +5527,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5543,7 +5539,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5555,10 +5551,10 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>41</v>
@@ -5566,10 +5562,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5580,7 +5576,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -5592,13 +5588,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5649,31 +5645,31 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5684,14 +5680,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5710,16 +5706,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5757,19 +5753,19 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC29" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AC29" t="s" s="2">
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5781,7 +5777,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -5793,7 +5789,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5804,10 +5800,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5815,34 +5811,34 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="O30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5891,7 +5887,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5903,7 +5899,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5912,10 +5908,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5926,10 +5922,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5940,7 +5936,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5952,13 +5948,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6009,31 +6005,31 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -6044,14 +6040,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6070,16 +6066,16 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6117,19 +6113,19 @@
         <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC32" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AD32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AD32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -6141,7 +6137,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -6153,7 +6149,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -6164,10 +6160,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6175,107 +6171,107 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="S33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6286,10 +6282,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6300,28 +6296,28 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6371,31 +6367,31 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6406,10 +6402,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6417,39 +6413,39 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>41</v>
@@ -6491,31 +6487,31 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6526,10 +6522,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6540,29 +6536,29 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6611,31 +6607,31 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6646,10 +6642,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6660,31 +6656,31 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6733,31 +6729,31 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6768,10 +6764,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6782,31 +6778,31 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6855,31 +6851,31 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6890,45 +6886,45 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6953,69 +6949,69 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7026,7 +7022,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -7038,13 +7034,13 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7095,31 +7091,31 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -7130,14 +7126,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7156,16 +7152,16 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7203,19 +7199,19 @@
         <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC41" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AC41" t="s" s="2">
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7227,7 +7223,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -7239,7 +7235,7 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7250,10 +7246,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7261,7 +7257,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -7273,22 +7269,22 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="O42" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7337,7 +7333,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7349,7 +7345,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -7358,10 +7354,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7372,10 +7368,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7386,7 +7382,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -7398,13 +7394,13 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7455,31 +7451,31 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7490,14 +7486,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7516,16 +7512,16 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7563,19 +7559,19 @@
         <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC44" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AC44" t="s" s="2">
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7587,7 +7583,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -7599,7 +7595,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7610,10 +7606,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7624,31 +7620,31 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="O45" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7697,31 +7693,31 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7732,10 +7728,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7746,28 +7742,28 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7817,31 +7813,31 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7852,10 +7848,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7866,31 +7862,31 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="O47" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7939,31 +7935,31 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7974,10 +7970,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7988,31 +7984,31 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -8061,31 +8057,31 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -8096,10 +8092,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8110,31 +8106,31 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K49" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="M49" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -8183,31 +8179,31 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8218,10 +8214,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8229,34 +8225,34 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="O50" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8305,31 +8301,31 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8340,10 +8336,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8351,34 +8347,34 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8427,34 +8423,34 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>41</v>
@@ -8462,10 +8458,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8485,19 +8481,19 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8547,7 +8543,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8559,7 +8555,7 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
@@ -8568,13 +8564,13 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>41</v>
@@ -8582,45 +8578,45 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -8669,34 +8665,34 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>41</v>
@@ -8704,45 +8700,45 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8791,34 +8787,34 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>41</v>
@@ -8826,10 +8822,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8840,28 +8836,28 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8911,19 +8907,19 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8932,13 +8928,13 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>41</v>
@@ -8946,10 +8942,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8969,22 +8965,22 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -9033,7 +9029,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -9045,22 +9041,22 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>41</v>
@@ -9068,10 +9064,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9082,31 +9078,31 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -9143,58 +9139,58 @@
         <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI57" t="s" s="2">
+      <c r="AJ57" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>41</v>
@@ -9204,31 +9200,31 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="O58" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -9277,48 +9273,48 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>41</v>
@@ -9328,31 +9324,31 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9401,48 +9397,48 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>41</v>
@@ -9452,31 +9448,31 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="O60" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9525,45 +9521,45 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9574,7 +9570,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9586,19 +9582,19 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9623,55 +9619,55 @@
         <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Z61" t="s" s="2">
+      <c r="AA61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI61" t="s" s="2">
+      <c r="AJ61" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9682,14 +9678,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9708,19 +9704,19 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9745,14 +9741,14 @@
         <v>41</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>41</v>
       </c>
@@ -9769,7 +9765,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9781,33 +9777,33 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9830,19 +9826,19 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9891,7 +9887,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9903,7 +9899,7 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9912,10 +9908,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9926,10 +9922,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9940,7 +9936,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9952,13 +9948,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10009,31 +10005,31 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -10044,14 +10040,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10070,16 +10066,16 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10117,19 +10113,19 @@
         <v>41</v>
       </c>
       <c r="AB65" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC65" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AC65" t="s" s="2">
+      <c r="AD65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AD65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE65" t="s" s="2">
+      <c r="AF65" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -10141,7 +10137,7 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
@@ -10153,7 +10149,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -10164,10 +10160,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10178,28 +10174,28 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10249,31 +10245,31 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10284,10 +10280,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10298,25 +10294,25 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K67" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10367,31 +10363,31 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10402,10 +10398,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10413,31 +10409,31 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J68" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10487,31 +10483,31 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10522,10 +10518,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10536,7 +10532,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10548,16 +10544,16 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10583,69 +10579,69 @@
         <v>41</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z69" t="s" s="2">
+      <c r="AA69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AA69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10656,7 +10652,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -10668,19 +10664,19 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10705,55 +10701,55 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="Z70" t="s" s="2">
+      <c r="AA70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AA70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10764,10 +10760,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10775,10 +10771,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10790,16 +10786,16 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10849,45 +10845,45 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>495</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10898,7 +10894,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -10910,16 +10906,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10969,45 +10965,45 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11030,19 +11026,19 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -11091,7 +11087,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -11103,19 +11099,19 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -11126,10 +11122,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11140,7 +11136,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -11152,13 +11148,13 @@
         <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11209,31 +11205,31 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -11244,14 +11240,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11270,16 +11266,16 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M75" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11329,7 +11325,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11341,7 +11337,7 @@
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -11353,7 +11349,7 @@
         <v>41</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11364,14 +11360,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11384,25 +11380,25 @@
         <v>41</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>41</v>
@@ -11451,7 +11447,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11463,7 +11459,7 @@
         <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>41</v>
@@ -11475,7 +11471,7 @@
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11486,10 +11482,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11500,7 +11496,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -11512,16 +11508,16 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11571,31 +11567,31 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11606,10 +11602,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11620,7 +11616,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -11632,16 +11628,16 @@
         <v>41</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="N78" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11691,31 +11687,31 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11726,10 +11722,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11740,7 +11736,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>41</v>
@@ -11752,19 +11748,19 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11789,55 +11785,55 @@
         <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="Z79" t="s" s="2">
+      <c r="AA79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AA79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AM79" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AN79" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11848,10 +11844,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11874,19 +11870,19 @@
         <v>41</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11911,14 +11907,14 @@
         <v>41</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11935,7 +11931,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11947,19 +11943,19 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AM80" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AN80" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11970,10 +11966,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11984,7 +11980,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>41</v>
@@ -11996,19 +11992,19 @@
         <v>41</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>41</v>
@@ -12057,19 +12053,19 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -12081,7 +12077,7 @@
         <v>41</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -12092,10 +12088,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12106,7 +12102,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -12118,16 +12114,16 @@
         <v>41</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12177,19 +12173,19 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
@@ -12198,10 +12194,10 @@
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>41</v>
@@ -12212,10 +12208,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12235,19 +12231,19 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12297,7 +12293,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12309,7 +12305,7 @@
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>41</v>
@@ -12318,10 +12314,10 @@
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>
@@ -12332,10 +12328,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12355,19 +12351,19 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12417,7 +12413,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12429,7 +12425,7 @@
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
@@ -12438,10 +12434,10 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>41</v>
@@ -12452,10 +12448,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12475,22 +12471,22 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12539,7 +12535,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12551,7 +12547,7 @@
         <v>41</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>41</v>
@@ -12560,10 +12556,10 @@
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>41</v>
@@ -12574,10 +12570,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12588,7 +12584,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -12600,13 +12596,13 @@
         <v>41</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12657,31 +12653,31 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
@@ -12692,14 +12688,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12718,16 +12714,16 @@
         <v>41</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12777,7 +12773,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12789,7 +12785,7 @@
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>41</v>
@@ -12801,7 +12797,7 @@
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12812,14 +12808,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12832,25 +12828,25 @@
         <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="N88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12899,7 +12895,7 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12911,7 +12907,7 @@
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>41</v>
@@ -12923,7 +12919,7 @@
         <v>41</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>41</v>
@@ -12934,10 +12930,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12945,34 +12941,34 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K89" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="N89" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="O89" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12997,58 +12993,58 @@
         <v>41</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z89" t="s" s="2">
+      <c r="AA89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AA89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="AM89" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AN89" t="s" s="2">
+      <c r="AO89" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>41</v>
@@ -13056,10 +13052,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13070,31 +13066,31 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K90" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="O90" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>41</v>
@@ -13143,45 +13139,45 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM90" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP90" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13192,7 +13188,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>41</v>
@@ -13204,19 +13200,19 @@
         <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="O91" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13241,55 +13237,55 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI91" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AA91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI91" t="s" s="2">
+      <c r="AJ91" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>
@@ -13300,14 +13296,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13326,19 +13322,19 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>41</v>
@@ -13363,14 +13359,14 @@
         <v>41</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>41</v>
       </c>
@@ -13387,7 +13383,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13399,33 +13395,33 @@
         <v>41</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13451,16 +13447,16 @@
         <v>42</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>41</v>
@@ -13509,7 +13505,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13521,7 +13517,7 @@
         <v>41</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>41</v>
@@ -13530,10 +13526,10 @@
         <v>41</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>41</v>
